--- a/icsd3-mappings/icsd3-queries.xlsx
+++ b/icsd3-mappings/icsd3-queries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>designation</t>
   </si>
@@ -27,7 +27,13 @@
     <t>Obstructive Sleep Apnea, Adult</t>
   </si>
   <si>
-    <t>((icdadultosa_symptoms OR  icdadultosa_history) AND (SUM(icsdadultosa_psg5events) &gt;= 5)) OR (SUM(icsdadultosa_psg15events) &gt;= 15)</t>
+    <t>((icdadultosa_symptoms OR  icdadultosa_history) AND (SUM(icsdadultosa_psg5events) &gt;= 5)) OR ((SUM(icsdadultosa_psg15events) &gt;= 15) OR icsdadultosa_psggt15events)</t>
+  </si>
+  <si>
+    <t>Chronic Insomnia Disorder</t>
+  </si>
+  <si>
+    <t>icsdinsom_history AND icsdinsom_symptoms</t>
   </si>
 </sst>
 </file>
@@ -386,16 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -406,12 +412,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
